--- a/man_verb_soln.xlsx
+++ b/man_verb_soln.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niranjan_agnihotri\.Fly-away\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{973073F2-3BD8-4122-9B46-C5CF73B5C001}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13320" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" r:id="rId1"/>
     <sheet name="Logical RC" sheetId="2" r:id="rId2"/>
     <sheet name="SE" sheetId="3" r:id="rId3"/>
     <sheet name="SC" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="challenging problems" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
   <si>
     <t>c</t>
   </si>
@@ -367,19 +372,61 @@
   </si>
   <si>
     <t>check for distinct word</t>
+  </si>
+  <si>
+    <t>timed-out</t>
+  </si>
+  <si>
+    <t>ontrack</t>
+  </si>
+  <si>
+    <t>reduce reduce</t>
+  </si>
+  <si>
+    <t>quadrant quad</t>
+  </si>
+  <si>
+    <t>proper diagram</t>
+  </si>
+  <si>
+    <t>check the signs of the final answer</t>
+  </si>
+  <si>
+    <t>good use of tables make things easier</t>
+  </si>
+  <si>
+    <t>cubes of 2 less</t>
+  </si>
+  <si>
+    <t>imagine and apply arithematic</t>
+  </si>
+  <si>
+    <t>simplify b4 solving</t>
+  </si>
+  <si>
+    <t>a b</t>
+  </si>
+  <si>
+    <t>silly fraction division mistake</t>
+  </si>
+  <si>
+    <t>don't cancel variables without thought</t>
+  </si>
+  <si>
+    <t>1 div by in rem is zero, but 1 div by dec thn rem not 0</t>
+  </si>
+  <si>
+    <t>remainder danger</t>
+  </si>
+  <si>
+    <t>one and only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,358 +440,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -752,243 +457,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1004,58 +477,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1064,7 +498,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1316,17 +750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>23</v>
       </c>
@@ -1334,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>24</v>
       </c>
@@ -1342,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1350,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>26</v>
       </c>
@@ -1372,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>28</v>
       </c>
@@ -1380,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1388,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1396,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>31</v>
       </c>
@@ -1418,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>33</v>
       </c>
@@ -1426,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1434,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>35</v>
       </c>
@@ -1456,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>37</v>
       </c>
@@ -1464,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>38</v>
       </c>
@@ -1472,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>39</v>
       </c>
@@ -1480,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1491,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>41</v>
       </c>
@@ -1499,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>42</v>
       </c>
@@ -1507,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>43</v>
       </c>
@@ -1529,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>45</v>
       </c>
@@ -1537,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>46</v>
       </c>
@@ -1545,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>47</v>
       </c>
@@ -1553,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>48</v>
       </c>
@@ -1575,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>50</v>
       </c>
@@ -1583,7 +1016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>51</v>
       </c>
@@ -1591,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>52</v>
       </c>
@@ -1602,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>53</v>
       </c>
@@ -1613,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>54</v>
       </c>
@@ -1635,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>56</v>
       </c>
@@ -1654,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>58</v>
       </c>
@@ -1673,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>60</v>
       </c>
@@ -1681,52 +1114,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>70</v>
       </c>
@@ -1752,24 +1185,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>19</v>
       </c>
@@ -1780,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1788,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>21</v>
       </c>
@@ -1799,7 +1230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1821,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1829,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1840,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>26</v>
       </c>
@@ -1862,7 +1293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>28</v>
       </c>
@@ -1873,7 +1304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>29</v>
       </c>
@@ -1904,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>31</v>
       </c>
@@ -1915,7 +1346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>32</v>
       </c>
@@ -1929,7 +1360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>33</v>
       </c>
@@ -1940,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>34</v>
       </c>
@@ -1951,7 +1382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>35</v>
       </c>
@@ -1965,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>36</v>
       </c>
@@ -1979,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>37</v>
       </c>
@@ -1990,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>38</v>
       </c>
@@ -2018,7 +1449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>40</v>
       </c>
@@ -2029,52 +1460,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>50</v>
       </c>
@@ -2200,24 +1631,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>30</v>
       </c>
@@ -2242,7 +1671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>32</v>
       </c>
@@ -2253,7 +1682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>33</v>
       </c>
@@ -2264,7 +1693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>34</v>
       </c>
@@ -2275,7 +1704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>35</v>
       </c>
@@ -2314,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>38</v>
       </c>
@@ -2339,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>40</v>
       </c>
@@ -2350,27 +1779,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>45</v>
       </c>
@@ -2386,50 +1815,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:12">
+    <row r="1" spans="1:12">
       <c r="L1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2438,7 +1861,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2447,7 +1870,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2456,7 +1879,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2467,7 +1890,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2480,7 +1903,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2491,7 +1914,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2508,7 +1931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2523,7 +1946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2536,7 +1959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2551,7 +1974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2564,7 +1987,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2577,7 +2000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2588,7 +2011,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2603,7 +2026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2815,7 +2238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2826,7 +2249,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2837,7 +2260,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2848,7 +2271,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2883,7 +2306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2896,7 +2319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2907,7 +2330,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2918,7 +2341,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2929,7 +2352,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2944,7 +2367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2961,7 +2384,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2972,7 +2395,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2983,7 +2406,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2994,7 +2417,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3007,7 +2430,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3020,7 +2443,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3033,7 +2456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3046,7 +2469,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3066,7 +2489,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3074,17 +2497,25 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3092,35 +2523,60 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3128,8 +2584,11 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3137,62 +2596,108 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3200,62 +2705,101 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1">
+        <v>22500</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1">
+        <v>847</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3263,8 +2807,11 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3272,8 +2819,11 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3281,26 +2831,45 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3309,7 +2878,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3318,7 +2887,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3967,7 +3536,6 @@
       <c r="E151" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/man_verb_soln.xlsx
+++ b/man_verb_soln.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niranjan_agnihotri\.Fly-away\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{973073F2-3BD8-4122-9B46-C5CF73B5C001}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8876D87-FB8D-416C-8396-FBF6F92AEFB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="13320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" r:id="rId1"/>
-    <sheet name="Logical RC" sheetId="2" r:id="rId2"/>
-    <sheet name="SE" sheetId="3" r:id="rId3"/>
-    <sheet name="SC" sheetId="4" r:id="rId4"/>
-    <sheet name="challenging problems" sheetId="5" r:id="rId5"/>
+    <sheet name="barrons" sheetId="6" r:id="rId2"/>
+    <sheet name="timepass" sheetId="7" r:id="rId3"/>
+    <sheet name="Logical RC" sheetId="2" r:id="rId4"/>
+    <sheet name="SE" sheetId="3" r:id="rId5"/>
+    <sheet name="SC" sheetId="4" r:id="rId6"/>
+    <sheet name="challenging problems" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="161">
   <si>
     <t>c</t>
   </si>
@@ -420,6 +422,93 @@
   </si>
   <si>
     <t>one and only</t>
+  </si>
+  <si>
+    <t>illumi</t>
+  </si>
+  <si>
+    <t>prone</t>
+  </si>
+  <si>
+    <t>extol</t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>chican</t>
+  </si>
+  <si>
+    <t>artifice</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>insensititive</t>
+  </si>
+  <si>
+    <t>devious</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>unsurpri</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>defer</t>
+  </si>
+  <si>
+    <t>sychophant</t>
+  </si>
+  <si>
+    <t>uncontest</t>
+  </si>
+  <si>
+    <t>reconsider</t>
+  </si>
+  <si>
+    <t>forsake</t>
+  </si>
+  <si>
+    <t>garrulity</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>quadrilateral</t>
+  </si>
+  <si>
+    <t>entirely n</t>
+  </si>
+  <si>
+    <t>silly mistake, read powers correct</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>a,b</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>analyse all options don't hurry</t>
+  </si>
+  <si>
+    <t>card probability</t>
   </si>
 </sst>
 </file>
@@ -751,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1184,6 +1273,1051 @@
         <v>74</v>
       </c>
     </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1191,6 +2325,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC669CEA-4D12-47AF-A8DC-1087E7D4BAD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D5BB21-6497-456E-A105-A0A88CFF5576}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
@@ -1636,7 +2945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1820,7 +3129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1833,12 +3142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2873,75 +4182,131 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2949,26 +4314,41 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2977,7 +4357,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2986,7 +4366,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2995,7 +4375,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3004,7 +4384,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3013,7 +4393,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3022,7 +4402,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3031,7 +4411,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>95</v>
       </c>

--- a/man_verb_soln.xlsx
+++ b/man_verb_soln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niranjan_agnihotri\.Fly-away\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8876D87-FB8D-416C-8396-FBF6F92AEFB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAD27B6B-A20F-4F38-B3EF-5C1D354A1114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="13320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="167">
   <si>
     <t>c</t>
   </si>
@@ -509,6 +509,24 @@
   </si>
   <si>
     <t>card probability</t>
+  </si>
+  <si>
+    <t>hashtag this</t>
+  </si>
+  <si>
+    <t>important idea please see again</t>
+  </si>
+  <si>
+    <t>important idea please see</t>
+  </si>
+  <si>
+    <t>a,c,d,f,g</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>see the wording</t>
   </si>
 </sst>
 </file>
@@ -3146,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4354,109 +4372,185 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E89" s="1"/>
+      <c r="G89" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
+      <c r="G90" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1">
+        <v>0.08</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1">
+        <v>10</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4465,7 +4559,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4474,7 +4568,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4483,7 +4577,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4492,7 +4586,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4501,7 +4595,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4510,7 +4604,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4519,7 +4613,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4528,7 +4622,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4537,7 +4631,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4546,7 +4640,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4555,7 +4649,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>111</v>
       </c>
